--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Zap Cart\zap-cart-frontend-millenium-supermarket\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Zap Cart\zap-cart-frontend-kadooli-supermarket\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7F13D-43ED-4B7C-BDBD-10541186D10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514FAB8-9AF6-4EA8-A19B-48ED74056B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF2B6A7E-A21B-8D47-9FAE-7AE20B39643E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Americana Chicken Franks 4*300 gm</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Nezo Salt Bottle Red 600Gm</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -330,6 +327,21 @@
   </si>
   <si>
     <t>offer_end_date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>category_img</t>
+  </si>
+  <si>
+    <t>/category/veg_fruit_category_img.avif</t>
+  </si>
+  <si>
+    <t>/category/baby_care_category_img.avif</t>
+  </si>
+  <si>
+    <t>/category/pnatry_category_img.avif</t>
   </si>
 </sst>
 </file>
@@ -718,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEEEFFC-43EA-D64F-A7DE-77443D576624}">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -731,37 +743,41 @@
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="7" max="7" width="27.3984375" customWidth="1"/>
     <col min="8" max="8" width="20.296875" customWidth="1"/>
+    <col min="9" max="9" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -775,10 +791,13 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -792,10 +811,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -809,10 +831,13 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -827,9 +852,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -844,9 +869,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -861,9 +886,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -878,9 +903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -895,9 +920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -912,9 +937,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -929,9 +954,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -946,9 +971,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -963,9 +988,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -980,9 +1005,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -999,7 +1024,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1016,7 +1041,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1033,7 +1058,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1050,7 +1075,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1067,7 +1092,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1084,7 +1109,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1101,7 +1126,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1118,7 +1143,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1136,7 +1161,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>22</v>
@@ -1154,7 +1179,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1172,7 +1197,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -1190,7 +1215,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -1208,7 +1233,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
@@ -1226,7 +1251,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
@@ -1244,7 +1269,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
@@ -1259,7 +1284,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -1277,7 +1302,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
@@ -1295,7 +1320,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
@@ -1313,7 +1338,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
@@ -1331,7 +1356,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>33</v>
@@ -1349,7 +1374,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>34</v>
@@ -1367,7 +1392,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -1385,7 +1410,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>36</v>
@@ -1403,7 +1428,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>37</v>
@@ -1421,7 +1446,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>39</v>
@@ -1439,7 +1464,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>38</v>
@@ -1457,7 +1482,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>40</v>
@@ -1475,7 +1500,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>41</v>
@@ -1493,7 +1518,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
@@ -1511,7 +1536,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>43</v>
@@ -1529,7 +1554,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>44</v>
